--- a/municipal/ENG/Hotels/Guests/Adjara A.R/Shuakhevi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Adjara A.R/Shuakhevi Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Guests\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="18">
   <si>
     <t>Citizenship</t>
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -99,13 +96,19 @@
   <si>
     <t>*Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches)</t>
   </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>(person)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -234,7 +237,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -286,30 +289,21 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -332,17 +326,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,14 +629,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -658,13 +646,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -722,18 +710,18 @@
       <c r="BI2" s="12"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -791,19 +779,19 @@
       <c r="BI3" s="12"/>
     </row>
     <row r="4" spans="1:61" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -862,14 +850,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="41">
         <v>2010</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -928,22 +916,22 @@
     </row>
     <row r="6" spans="1:61" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1003,8 +991,13 @@
     </row>
     <row r="7" spans="1:61" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1065,20 +1058,20 @@
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
+      <c r="B8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1138,22 +1131,22 @@
     </row>
     <row r="9" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -1213,8 +1206,13 @@
     </row>
     <row r="10" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -1273,22 +1271,22 @@
     </row>
     <row r="11" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -1348,22 +1346,22 @@
     </row>
     <row r="12" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -1423,22 +1421,22 @@
     </row>
     <row r="13" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -1497,14 +1495,14 @@
       <c r="BI13" s="21"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="40">
         <v>2011</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1563,22 +1561,22 @@
     </row>
     <row r="15" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1638,13 +1636,13 @@
     </row>
     <row r="16" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1705,451 +1703,451 @@
       <c r="A17" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>14</v>
+      <c r="B17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="40">
         <v>2012</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B24" s="30">
+        <v>9</v>
+      </c>
+      <c r="C24" s="30">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30">
+        <v>6</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
+      <c r="B26" s="30">
+        <v>9</v>
+      </c>
+      <c r="C26" s="30">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30">
+        <v>6</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="40">
         <v>2013</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
+      <c r="B35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33">
+      <c r="A41" s="40">
         <v>2014</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="30">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
         <v>150</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="1">
         <v>90</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="1">
         <v>60</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>14</v>
+      <c r="E42" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
@@ -2164,16 +2162,16 @@
       <c r="D44" s="2">
         <v>56</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>14</v>
+      <c r="E44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>10</v>
@@ -2184,26 +2182,26 @@
       <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>14</v>
+      <c r="E45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2">
         <v>7</v>
@@ -2214,16 +2212,16 @@
       <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
+      <c r="E47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
@@ -2231,74 +2229,74 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>14</v>
+      <c r="D48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
+      <c r="A50" s="40">
         <v>2015</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="30">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1">
         <v>114</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="1">
         <v>39</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="30">
+      <c r="D51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,14 +2306,14 @@
       <c r="B53" s="2">
         <v>75</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
+      <c r="C53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F53" s="2">
         <v>75</v>
@@ -2323,7 +2321,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2">
         <v>39</v>
@@ -2331,29 +2329,29 @@
       <c r="C54" s="2">
         <v>39</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>14</v>
+      <c r="D54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2">
         <v>20</v>
@@ -2361,19 +2359,19 @@
       <c r="C56" s="2">
         <v>20</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>14</v>
+      <c r="D56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>19</v>
@@ -2381,75 +2379,75 @@
       <c r="C57" s="2">
         <v>19</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>14</v>
+      <c r="D57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
+      <c r="A59" s="40">
         <v>2016</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="30">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1">
         <v>132</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="1">
         <v>38</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="1">
         <v>94</v>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>14</v>
+      <c r="E60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
@@ -2464,16 +2462,16 @@
       <c r="D62" s="2">
         <v>94</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>14</v>
+      <c r="E62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>26</v>
@@ -2481,29 +2479,29 @@
       <c r="C63" s="2">
         <v>26</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>14</v>
+      <c r="D63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
         <v>12</v>
@@ -2511,19 +2509,19 @@
       <c r="C65" s="2">
         <v>12</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>14</v>
+      <c r="D65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <v>14</v>
@@ -2531,75 +2529,75 @@
       <c r="C66" s="2">
         <v>14</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>14</v>
+      <c r="D66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
+      <c r="A68" s="40">
         <v>2017</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="30">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
         <v>98</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="1">
         <v>31</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="1">
         <v>67</v>
       </c>
-      <c r="E69" s="29" t="s">
-        <v>14</v>
+      <c r="E69" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="1"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
@@ -2614,16 +2612,16 @@
       <c r="D71" s="2">
         <v>65</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>14</v>
+      <c r="E71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="2">
         <v>27</v>
@@ -2634,26 +2632,26 @@
       <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
+      <c r="E72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="1"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2">
         <v>12</v>
@@ -2664,16 +2662,16 @@
       <c r="D74" s="2">
         <v>2</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>14</v>
+      <c r="E74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
@@ -2681,75 +2679,75 @@
       <c r="C75" s="2">
         <v>15</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>14</v>
+      <c r="D75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="33">
+      <c r="A77" s="40">
         <v>2018</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="30">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
         <v>78</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="1">
         <v>23</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="1">
         <v>55</v>
       </c>
-      <c r="E78" s="29" t="s">
-        <v>14</v>
+      <c r="E78" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="1"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
@@ -2758,22 +2756,22 @@
       <c r="B80" s="2">
         <v>55</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>14</v>
+      <c r="C80" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="2">
         <v>55</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="2">
         <v>23</v>
@@ -2781,29 +2779,29 @@
       <c r="C81" s="2">
         <v>23</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2">
         <v>13</v>
@@ -2811,19 +2809,19 @@
       <c r="C83" s="2">
         <v>13</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="2">
         <v>10</v>
@@ -2831,77 +2829,77 @@
       <c r="C84" s="2">
         <v>10</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+        <v>9</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="40">
         <v>2019</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-    </row>
-    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="30">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1">
         <v>82</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="1">
         <v>76</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="30">
+      <c r="D87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>1</v>
       </c>
@@ -2911,19 +2909,19 @@
       <c r="C89" s="2">
         <v>50</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>14</v>
+      <c r="D89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="F89" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="2">
         <v>26</v>
@@ -2931,29 +2929,31 @@
       <c r="C90" s="2">
         <v>26</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="30"/>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="2">
         <v>15</v>
@@ -2961,19 +2961,20 @@
       <c r="C92" s="2">
         <v>15</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="30"/>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2">
         <v>11</v>
@@ -2981,75 +2982,77 @@
       <c r="C93" s="2">
         <v>11</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="33">
+        <v>9</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="30"/>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="40">
         <v>2020</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-    </row>
-    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+    </row>
+    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="30">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1">
         <v>69</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="30">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1">
         <v>69</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
@@ -3058,271 +3061,266 @@
       <c r="B98" s="2">
         <v>69</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>14</v>
+      <c r="C98" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D98" s="2">
         <v>69</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>14</v>
+      <c r="E98" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>14</v>
+      <c r="A103" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="40">
         <v>2021</v>
       </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="43">
+        <v>7</v>
+      </c>
+      <c r="B105" s="29">
         <v>1130</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C105" s="29">
         <v>892</v>
       </c>
-      <c r="D105" s="43">
+      <c r="D105" s="29">
         <v>91</v>
       </c>
-      <c r="E105" s="43">
+      <c r="E105" s="29">
         <v>60</v>
       </c>
-      <c r="F105" s="43">
+      <c r="F105" s="29">
         <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="45">
+      <c r="B107" s="31">
         <v>1030</v>
       </c>
-      <c r="C107" s="45">
+      <c r="C107" s="31">
         <v>830</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="31">
         <v>80</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="31">
         <v>50</v>
       </c>
-      <c r="F107" s="45">
+      <c r="F107" s="31">
         <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="45">
+        <v>8</v>
+      </c>
+      <c r="B108" s="31">
         <v>100</v>
       </c>
-      <c r="C108" s="45">
+      <c r="C108" s="31">
         <v>62</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="31">
         <v>11</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="31">
         <v>10</v>
       </c>
-      <c r="F108" s="45">
+      <c r="F108" s="31">
         <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="31"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="45">
+        <v>11</v>
+      </c>
+      <c r="B110" s="31">
         <v>10</v>
       </c>
-      <c r="C110" s="45">
+      <c r="C110" s="31">
         <v>2</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="31">
         <v>3</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="31">
         <v>3</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="45">
+        <v>10</v>
+      </c>
+      <c r="B111" s="31">
         <v>68</v>
       </c>
-      <c r="C111" s="45">
+      <c r="C111" s="31">
         <v>48</v>
       </c>
-      <c r="D111" s="45">
+      <c r="D111" s="31">
         <v>5</v>
       </c>
-      <c r="E111" s="45">
+      <c r="E111" s="31">
         <v>5</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="46">
+        <v>9</v>
+      </c>
+      <c r="B112" s="32">
         <v>22</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="32">
         <v>12</v>
       </c>
-      <c r="D112" s="46">
+      <c r="D112" s="32">
         <v>3</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="32">
         <v>2</v>
       </c>
-      <c r="F112" s="46">
+      <c r="F112" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="32" t="s">
-        <v>16</v>
+      <c r="A113" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="A104:F104"/>
     <mergeCell ref="A5:F5"/>
@@ -3335,6 +3333,11 @@
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
